--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_12-15.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_12-15.xlsx
@@ -68,6 +68,12 @@
     <t>0:7</t>
   </si>
   <si>
+    <t>CERVITAM 20 CAPS.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
@@ -77,6 +83,12 @@
     <t>6:0</t>
   </si>
   <si>
+    <t>DIAMICRON MR 30 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -153,6 +165,12 @@
   </si>
   <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
   </si>
   <si>
     <t>TELFAST 120MG 20 F.C. TAB</t>
@@ -966,17 +984,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>139.68000000000001</v>
+        <v>59</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -984,7 +1002,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -992,17 +1010,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>12</v>
+        <v>139.68000000000001</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1024,11 +1042,11 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10">
-        <v>0.67000000000000004</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1044,17 +1062,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>28</v>
+        <v>26.670000000000002</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1062,7 +1080,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1070,17 +1088,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
-        <v>0.10000000000000001</v>
+        <v>0.67000000000000004</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1088,7 +1106,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1096,17 +1114,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1122,17 +1140,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
-        <v>1</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1140,7 +1158,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1148,17 +1166,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1166,7 +1184,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1174,13 +1192,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
@@ -1192,7 +1210,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1200,17 +1218,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1232,11 +1250,11 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
-        <v>0.17000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1258,11 +1276,11 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>332</v>
+        <v>57</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1284,11 +1302,11 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1310,11 +1328,11 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>23</v>
+        <v>332</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1336,7 +1354,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
@@ -1362,11 +1380,11 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>169.19999999999999</v>
+        <v>23</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
-        <v>0.29999999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1382,13 +1400,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>73.319999999999993</v>
+        <v>32</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
@@ -1400,7 +1418,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1408,17 +1426,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>116</v>
+        <v>169.19999999999999</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
-        <v>1</v>
+        <v>0.29999999999999999</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1426,7 +1444,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1440,11 +1458,11 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>30</v>
+        <v>73.319999999999993</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1452,7 +1470,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1460,13 +1478,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>17</v>
+        <v>45.5</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
@@ -1478,7 +1496,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1486,13 +1504,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
@@ -1504,7 +1522,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1512,17 +1530,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1530,7 +1548,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1538,17 +1556,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
-        <v>2</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1556,7 +1574,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1564,13 +1582,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
@@ -1590,51 +1608,129 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="36" ht="25.5" customHeight="1">
-      <c r="K36" s="11">
-        <v>1608.0999999999999</v>
-      </c>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="12">
+    <row r="36" ht="24.75" customHeight="1">
+      <c r="A36" s="6">
+        <v>33</v>
+      </c>
+      <c t="s" r="B36" s="7">
+        <v>61</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c t="s" r="H36" s="8">
+        <v>62</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="9">
+        <v>4</v>
+      </c>
+      <c r="M36" s="9"/>
+      <c r="N36" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="6">
+        <v>34</v>
+      </c>
+      <c t="s" r="B37" s="7">
+        <v>63</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c t="s" r="H37" s="8">
+        <v>64</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="9">
+        <v>2</v>
+      </c>
+      <c r="M37" s="9"/>
+      <c r="N37" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" ht="25.5" customHeight="1">
+      <c r="A38" s="6">
+        <v>35</v>
+      </c>
+      <c t="s" r="B38" s="7">
+        <v>65</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c t="s" r="H38" s="8">
         <v>60</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c t="s" r="F37" s="13">
-        <v>61</v>
-      </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="14"/>
-      <c t="s" r="I37" s="15">
-        <v>62</v>
-      </c>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="9">
+        <v>27</v>
+      </c>
+      <c r="M38" s="9"/>
+      <c r="N38" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="K39" s="11">
+        <v>1739.27</v>
+      </c>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="12">
+        <v>66</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c t="s" r="F40" s="13">
+        <v>67</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="14"/>
+      <c t="s" r="I40" s="15">
+        <v>68</v>
+      </c>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="116">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1738,10 +1834,19 @@
     <mergeCell ref="B35:G35"/>
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:N40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
